--- a/Pharmacy Inventory Data Generation.xlsx
+++ b/Pharmacy Inventory Data Generation.xlsx
@@ -269,39 +269,39 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
